--- a/posesiones/1381241.xlsx
+++ b/posesiones/1381241.xlsx
@@ -1928,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>12</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>17</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>24</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>16</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>7</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>14</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>28</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>18</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R38">
         <v>20</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>11</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>23</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>13</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>26</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>25</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>18</v>
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>14</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>10</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>15</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>20</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>21</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>24</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>18</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>14</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>19</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>8</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>18</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>6</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>15</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R86">
         <v>19</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R93">
         <v>27</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R97">
         <v>17</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>17</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6898,10 +6898,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7224,10 +7224,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>20</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>22</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R120">
         <v>5</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7812,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R122">
         <v>5</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7956,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8194,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R130">
         <v>8</v>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R131">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>0</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R138">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8697,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R140">
         <v>9</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R142">
         <v>32</v>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9035,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R147">
         <v>22</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>7</v>
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>44</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R154">
         <v>23</v>
@@ -9435,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R155">
         <v>13</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R159">
         <v>18</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9732,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R161">
         <v>26</v>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10161,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R173">
         <v>33</v>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R174">
         <v>20</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R176">
         <v>4</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10558,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R178">
         <v>7</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10658,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R180">
         <v>15</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R183">
         <v>18</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>7</v>
@@ -10955,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11049,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R188">
         <v>12</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11152,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R190">
         <v>23</v>
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11252,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R193">
         <v>8</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11593,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R199">
         <v>8</v>
@@ -11646,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R201">
         <v>13</v>
@@ -11749,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>19</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R204">
         <v>21</v>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R210">
         <v>15</v>
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12246,7 +12246,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R212">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R213">
         <v>15</v>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R217">
         <v>11</v>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12640,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12872,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12922,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R226">
         <v>37</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13022,7 +13022,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R228">
         <v>16</v>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R230">
         <v>21</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R232">
         <v>6</v>
@@ -13269,10 +13269,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13407,10 +13407,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R237">
         <v>1</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R241">
         <v>23</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>13</v>
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13954,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R247">
         <v>17</v>
@@ -14004,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14054,7 +14054,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R249">
         <v>8</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R251">
         <v>17</v>
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R253">
         <v>7</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R255">
         <v>14</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R258">
         <v>5</v>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14789,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R268">
         <v>26</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R270">
         <v>9</v>
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15183,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15233,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15327,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15424,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R277">
         <v>12</v>
@@ -15477,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R278">
         <v>13</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R279">
         <v>18</v>
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R281">
         <v>22</v>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15736,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>22</v>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R285">
         <v>8</v>
@@ -15892,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15939,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15986,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16036,7 +16036,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R289">
         <v>21</v>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16136,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R291">
         <v>20</v>
@@ -16189,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R292">
         <v>16</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16292,7 +16292,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R294">
         <v>15</v>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16392,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16492,7 +16492,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R298">
         <v>9</v>
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16636,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16874,7 +16874,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16974,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R308">
         <v>19</v>
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17312,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17406,7 +17406,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R318">
         <v>27</v>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17559,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R320">
         <v>14</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R322">
         <v>11</v>
@@ -17715,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R323">
         <v>13</v>
@@ -17768,7 +17768,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17818,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R325">
         <v>8</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17915,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R327">
         <v>14</v>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R329">
         <v>17</v>
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18165,7 +18165,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R332">
         <v>4</v>
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18265,7 +18265,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R334">
         <v>5</v>
@@ -18318,7 +18318,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R335">
         <v>14</v>
@@ -18368,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18603,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18747,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R344">
         <v>9</v>
@@ -18800,7 +18800,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R345">
         <v>17</v>
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18994,7 +18994,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R349">
         <v>0</v>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19141,7 +19141,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19238,7 +19238,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>26</v>
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19573,7 +19573,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R361">
         <v>17</v>
@@ -19626,7 +19626,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19676,7 +19676,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R363">
         <v>22</v>
@@ -19729,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R364">
         <v>12</v>
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19832,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>5</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R367">
         <v>5</v>
@@ -19929,10 +19929,10 @@
         <v>1</v>
       </c>
       <c r="P368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20073,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20120,7 +20120,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20161,10 +20161,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R374">
         <v>1</v>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20552,7 +20552,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R381">
         <v>16</v>
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20696,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20837,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20978,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21028,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R391">
         <v>32</v>
@@ -21081,7 +21081,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R392">
         <v>16</v>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21278,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21466,7 +21466,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R400">
         <v>40</v>
@@ -21519,7 +21519,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R401">
         <v>14</v>
@@ -21572,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21622,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R403">
         <v>21</v>
@@ -21675,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R405">
         <v>6</v>
@@ -21775,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R407">
         <v>18</v>
@@ -21875,7 +21875,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21922,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21969,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22016,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22113,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R413">
         <v>7</v>
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22216,7 +22216,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R415">
         <v>17</v>
@@ -22266,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22313,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22407,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22457,7 +22457,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R420">
         <v>6</v>
@@ -22507,7 +22507,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22551,7 +22551,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22645,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22789,7 +22789,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R427">
         <v>7</v>
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22933,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23027,7 +23027,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23077,7 +23077,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R433">
         <v>4</v>
@@ -23127,7 +23127,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R434">
         <v>25</v>
@@ -23180,7 +23180,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R435">
         <v>19</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23280,7 +23280,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R437">
         <v>22</v>
@@ -23330,7 +23330,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23380,7 +23380,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R439">
         <v>18</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23527,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23577,7 +23577,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R443">
         <v>12</v>
@@ -23630,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>13</v>
@@ -23683,7 +23683,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23733,7 +23733,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R446">
         <v>19</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23827,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23874,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23921,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23968,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24015,7 +24015,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24065,7 +24065,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R453">
         <v>20</v>
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24168,7 +24168,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R455">
         <v>14</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24312,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24453,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R463">
         <v>13</v>
@@ -24603,7 +24603,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R464">
         <v>20</v>
@@ -24653,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24703,7 +24703,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R466">
         <v>11</v>
@@ -24756,7 +24756,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24900,7 +24900,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R470">
         <v>28</v>
@@ -24950,7 +24950,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25000,7 +25000,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R472">
         <v>7</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25103,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R474">
         <v>6</v>
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25341,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25441,7 +25441,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R481">
         <v>12</v>
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R483">
         <v>22</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25641,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25741,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R487">
         <v>11</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25844,7 +25844,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R489">
         <v>12</v>
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25944,7 +25944,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R491">
         <v>3</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26041,7 +26041,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R493">
         <v>13</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26141,7 +26141,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R495">
         <v>6</v>
@@ -26194,7 +26194,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26429,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26479,7 +26479,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R502">
         <v>6</v>
@@ -26532,7 +26532,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R503">
         <v>12</v>
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26679,7 +26679,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26726,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26773,7 +26773,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26820,7 +26820,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26870,7 +26870,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R510">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26970,7 +26970,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27064,7 +27064,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27114,7 +27114,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R515">
         <v>10</v>
@@ -27167,7 +27167,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27217,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R517">
         <v>8</v>
@@ -27267,7 +27267,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27317,7 +27317,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R519">
         <v>3</v>
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27414,7 +27414,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27652,7 +27652,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R526">
         <v>1</v>
@@ -27702,7 +27702,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27940,7 +27940,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R532">
         <v>10</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R533">
         <v>5</v>
@@ -28046,7 +28046,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R534">
         <v>2</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28146,7 +28146,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R536">
         <v>3</v>
@@ -28190,10 +28190,10 @@
         <v>1</v>
       </c>
       <c r="P537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q537">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28234,7 +28234,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
